--- a/data/trans_camb/P12B1_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12B1_1_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -625,6 +656,21 @@
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
@@ -667,6 +713,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -705,6 +766,21 @@
           <t>—%</t>
         </is>
       </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -743,6 +819,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>39,25</t>
+          <t>12,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,2</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-51,16</t>
+          <t>14,39</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-100,0</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,7</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-18,44</t>
+          <t>1,45</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5,71</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-1,4</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>9,15</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 84,61</t>
+          <t>-2,06; 42,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-45,47; 62,45</t>
+          <t>-6,92; 7,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-0,79; 49,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,58; 3,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-25,77; 71,48</t>
+          <t>-9,35; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-60,04; 34,59</t>
+          <t>-4,9; 9,01</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-1,84; 25,23</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-5,83; 3,18</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-0,32; 31,86</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>134,79%</t>
+          <t>353,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>-2,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-51,16%</t>
+          <t>422,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-49,09%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>45,73%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-40,73%</t>
+          <t>47,2%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>176,25%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-43,35%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>282,65%</t>
         </is>
       </c>
     </row>
@@ -881,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -891,12 +1027,27 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,21; 720,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 196,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-75,18; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-40,58; 2500,83</t>
         </is>
       </c>
     </row>
@@ -918,27 +1069,42 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-18,81</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,55</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,01</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,75</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>11,25</t>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,59</t>
         </is>
       </c>
     </row>
@@ -961,22 +1127,37 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-30,5; 52,88</t>
+          <t>0,0; 11,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-28,32; 55,61</t>
+          <t>-2,76; 5,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-48,98; 63,15</t>
+          <t>-2,74; 5,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-48,29; 70,14</t>
+          <t>-3,17; 4,46</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 3,66</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-2,25; 2,73</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-0,99; 4,81</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-18,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>43,77%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>64,46%</t>
+          <t>33,53%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>47,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>20,52%</t>
+          <t>33,67%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>31,25%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>41,53%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>141,76%</t>
         </is>
       </c>
     </row>
@@ -1042,17 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-75,4; 613,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-88,51; 363,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-84,93; 396,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,16</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,11</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-7,5</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-7,5</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,35</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-0,98</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-0,42</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-36,75; 19,56</t>
+          <t>-2,46; 3,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-27,11; 38,16</t>
+          <t>-2,45; 3,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-31,81; 0,0</t>
+          <t>-2,43; 4,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-30,82; 0,0</t>
+          <t>-4,94; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-18,5; 10,16</t>
+          <t>-4,85; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 13,34</t>
+          <t>-4,94; 0,0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,69; 1,23</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-2,2; 1,25</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-2,18; 1,76</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-18,89%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>71,09%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
+          <t>12,86%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-48,06%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-9,48%</t>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-46,05%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-44,6%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-38,76%</t>
         </is>
       </c>
     </row>
@@ -1211,6 +1467,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1225,17 +1496,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-8,32</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-8,32</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1245,12 +1516,27 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-4,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-4,36</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,78</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,78</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-0,78</t>
         </is>
       </c>
     </row>
@@ -1263,17 +1549,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-42,25; 0,0</t>
+          <t>-7,78; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-43,3; 0,0</t>
+          <t>-7,77; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,78; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1283,12 +1569,27 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-19,85; 0,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 0,0</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-3,27; 0,0</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 0,0</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1321,10 +1622,25 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr">
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
@@ -1367,6 +1683,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1405,6 +1736,21 @@
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
@@ -1447,6 +1793,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
@@ -1485,6 +1846,21 @@
           <t>—%</t>
         </is>
       </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
@@ -1523,6 +1899,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>10,78</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-4,12</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>6,01</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1,74</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-26,89; 41,46</t>
+          <t>-0,82; 10,15</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-28,22; 40,98</t>
+          <t>-1,91; 1,24</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-12,49; 10,96</t>
+          <t>0,05; 14,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 6,03</t>
+          <t>-1,78; 1,09</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-14,26; 25,51</t>
+          <t>-1,96; 0,58</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 23,42</t>
+          <t>-1,46; 1,38</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-0,65; 5,19</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-1,31; 0,72</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-0,01; 7,68</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>48,49%</t>
+          <t>179,46%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>-20,54%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-12,51%</t>
+          <t>310,7%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-40,46%</t>
+          <t>-27,64%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>38,41%</t>
+          <t>-43,84%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>1,41%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>69,87%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-32,6%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>151,34%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-92,83; 537,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-94,21; 473,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-84,25; 234,45</t>
+          <t>-37,13; —</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-88,43; 179,24</t>
+          <t>-100,0; 269,64</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-68,5; 288,68</t>
+          <t>-100,0; 180,48</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-76,02; 278,87</t>
+          <t>-71,89; 333,51</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-51,08; 725,01</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-82,04; 146,01</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-11,1; 975,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
